--- a/LibroDiario.xlsx
+++ b/LibroDiario.xlsx
@@ -510,20 +510,20 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Oct-11-2022</t>
+          <t>Oct-16-2022</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Activo Corriente</t>
+          <t>Efectivo  equivalentes de efectivo</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>72000</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -538,55 +538,53 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Oct-11-2022</t>
+          <t>Oct-16-2022</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>11</v>
+        <v>1260803</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Activo Corriente</t>
+          <t>Software  programas</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
+          <t>53172</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
           <t>-</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>100</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3" t="n"/>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Oct-11-2022</t>
+          <t>Oct-16-2022</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>111010103</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Efectivo en caja en el exterior</t>
+          <t>Efectivo  equivalentes de efectivo</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>53172</t>
         </is>
       </c>
       <c r="G4" s="3" t="n"/>
@@ -596,25 +594,25 @@
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Oct-11-2022</t>
+          <t>Oct-16-2022</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>111010103</v>
+        <v>211020205</v>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Efectivo en caja en el exterior</t>
+          <t>Impuesto sobre la renta a pagar</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -624,15 +622,15 @@
       <c r="A6" s="3" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Oct-11-2022</t>
+          <t>Oct-16-2022</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>111010103</v>
+        <v>31101</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Efectivo en caja en el exterior</t>
+          <t>Capital inicial</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -642,7 +640,7 @@
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -652,15 +650,15 @@
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Oct-11-2022</t>
+          <t>Oct-16-2022</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>111010103</v>
+        <v>31501</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Efectivo en caja en el exterior</t>
+          <t>Resultados acumulados de ejercicios anteriores</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -670,241 +668,89 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>61275</t>
         </is>
       </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>Oct-11-2022</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>111010102</v>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>Efectivo en caja en el país</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="3" t="n"/>
+      <c r="F8" s="3" t="n"/>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Oct-11-2022</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="n">
-        <v>111010102</v>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>Efectivo en caja en el país</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>Oct-11-2022</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>111010103</v>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>Efectivo en caja en el exterior</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
+      <c r="D10" s="3" t="n"/>
+      <c r="E10" s="3" t="n"/>
+      <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>Oct-11-2022</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>111010103</v>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>Efectivo en caja en el exterior</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
+      <c r="D11" s="3" t="n"/>
+      <c r="E11" s="3" t="n"/>
+      <c r="F11" s="3" t="n"/>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Oct-11-2022</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="n">
-        <v>1110102</v>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>Depósitos bancarios</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="3" t="n"/>
+      <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Oct-11-2022</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>1110102</v>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>Depósitos bancarios</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="3" t="n"/>
+      <c r="F13" s="3" t="n"/>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Oct-12-2022</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>1110101</v>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>Caja</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="3" t="n"/>
+      <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>Oct-12-2022</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="n">
-        <v>1110101</v>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>Caja</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
+      <c r="E15" s="3" t="n"/>
+      <c r="F15" s="3" t="n"/>
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>

--- a/LibroDiario.xlsx
+++ b/LibroDiario.xlsx
@@ -675,22 +675,60 @@
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
-      <c r="F9" s="3" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>229</v>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>Otros pasivos a largo plazo</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>

--- a/LibroDiario.xlsx
+++ b/LibroDiario.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>111</v>
+        <v>1110101</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>Efectivo  equivalentes de efectivo</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>72000</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -542,21 +542,21 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>1260803</v>
+        <v>31101</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>Software  programas</t>
+          <t>Capital inicial</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>53172</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
@@ -570,21 +570,21 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>111</v>
+        <v>1110101</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Efectivo  equivalentes de efectivo</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>53172</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" s="3" t="n"/>
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>211020205</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Impuesto sobre la renta a pagar</t>
+          <t>Otros pasivos a corto plazo</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>3225</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -626,21 +626,21 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>31101</v>
+        <v>1110101</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Capital inicial</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -654,11 +654,11 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>31501</v>
+        <v>44101</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Resultados acumulados de ejercicios anteriores</t>
+          <t>Ventas de bienes</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -668,32 +668,30 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>61275</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="A8" s="3" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Oct-16-2022</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>1110101</v>
+        <v>511</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Gastos en personal</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
@@ -712,11 +710,11 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>229</v>
+        <v>1110101</v>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Otros pasivos a largo plazo</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -726,81 +724,240 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
+      <c r="A10" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>Pasivo Corriente</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
       <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
+      <c r="A12" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>51</v>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>Gastos de funcionamiento</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
+      <c r="A14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D14" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="3" t="n"/>
-      <c r="F15" s="3" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>Pasivo Corriente</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="3" t="n"/>
-      <c r="F16" s="3" t="n"/>
+      <c r="A16" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D16" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oct-16-2022</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Pasivo Corriente</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LibroDiario.xlsx
+++ b/LibroDiario.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,29 +935,1652 @@
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="B17" t="inlineStr">
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Oct-16-2022</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Pasivo Corriente</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
+      <c r="G17" s="3" t="n"/>
+      <c r="H17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Oct-17-2022</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G18" s="3" t="n"/>
+      <c r="H18" s="3" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Oct-17-2022</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>44101</v>
+      </c>
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>Ventas de bienes</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="n"/>
+      <c r="H19" s="3" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Oct-17-2022</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="n"/>
+      <c r="H20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Oct-17-2022</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="n">
+        <v>219</v>
+      </c>
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>Otros pasivos a corto plazo</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="n"/>
+      <c r="H21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Dec-08-2022</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>Activo Corriente</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="n"/>
+      <c r="H22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Dec-08-2022</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>11101</v>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>Efectivo</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="n"/>
+      <c r="H23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Dec-14-2022</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="G24" s="3" t="n"/>
+      <c r="H24" s="3" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Dec-14-2022</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>521</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Intereses sobre endeudamiento público</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="n"/>
+      <c r="H25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Dec-14-2022</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="n"/>
+      <c r="H26" s="3" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Dec-14-2022</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>541010102</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Becas</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="n"/>
+      <c r="H27" s="3" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
+      <c r="D28" s="3" t="n"/>
+      <c r="E28" s="3" t="n"/>
+      <c r="F28" s="3" t="n"/>
+      <c r="G28" s="3" t="n"/>
+      <c r="H28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
+      <c r="D29" s="3" t="n"/>
+      <c r="E29" s="3" t="n"/>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
+      <c r="H29" s="3" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
+      <c r="D30" s="3" t="n"/>
+      <c r="E30" s="3" t="n"/>
+      <c r="F30" s="3" t="n"/>
+      <c r="G30" s="3" t="n"/>
+      <c r="H30" s="3" t="n"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
+      <c r="D31" s="3" t="n"/>
+      <c r="E31" s="3" t="n"/>
+      <c r="F31" s="3" t="n"/>
+      <c r="G31" s="3" t="n"/>
+      <c r="H31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
+      <c r="D32" s="3" t="n"/>
+      <c r="E32" s="3" t="n"/>
+      <c r="F32" s="3" t="n"/>
+      <c r="G32" s="3" t="n"/>
+      <c r="H32" s="3" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
+      <c r="D33" s="3" t="n"/>
+      <c r="E33" s="3" t="n"/>
+      <c r="F33" s="3" t="n"/>
+      <c r="G33" s="3" t="n"/>
+      <c r="H33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
+      <c r="D34" s="3" t="n"/>
+      <c r="E34" s="3" t="n"/>
+      <c r="F34" s="3" t="n"/>
+      <c r="G34" s="3" t="n"/>
+      <c r="H34" s="3" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="3" t="n"/>
+      <c r="C35" s="3" t="n"/>
+      <c r="D35" s="3" t="n"/>
+      <c r="E35" s="3" t="n"/>
+      <c r="F35" s="3" t="n"/>
+      <c r="G35" s="3" t="n"/>
+      <c r="H35" s="3" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n"/>
+      <c r="B36" s="3" t="n"/>
+      <c r="C36" s="3" t="n"/>
+      <c r="D36" s="3" t="n"/>
+      <c r="E36" s="3" t="n"/>
+      <c r="F36" s="3" t="n"/>
+      <c r="G36" s="3" t="n"/>
+      <c r="H36" s="3" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="3" t="n"/>
+      <c r="C37" s="3" t="n"/>
+      <c r="D37" s="3" t="n"/>
+      <c r="E37" s="3" t="n"/>
+      <c r="F37" s="3" t="n"/>
+      <c r="G37" s="3" t="n"/>
+      <c r="H37" s="3" t="n"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n"/>
+      <c r="B38" s="3" t="n"/>
+      <c r="C38" s="3" t="n"/>
+      <c r="D38" s="3" t="n"/>
+      <c r="E38" s="3" t="n"/>
+      <c r="F38" s="3" t="n"/>
+      <c r="G38" s="3" t="n"/>
+      <c r="H38" s="3" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="3" t="n"/>
+      <c r="C39" s="3" t="n"/>
+      <c r="D39" s="3" t="n"/>
+      <c r="E39" s="3" t="n"/>
+      <c r="F39" s="3" t="n"/>
+      <c r="G39" s="3" t="n"/>
+      <c r="H39" s="3" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n"/>
+      <c r="B40" s="3" t="n"/>
+      <c r="C40" s="3" t="n"/>
+      <c r="D40" s="3" t="n"/>
+      <c r="E40" s="3" t="n"/>
+      <c r="F40" s="3" t="n"/>
+      <c r="G40" s="3" t="n"/>
+      <c r="H40" s="3" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="3" t="n"/>
+      <c r="C41" s="3" t="n"/>
+      <c r="D41" s="3" t="n"/>
+      <c r="E41" s="3" t="n"/>
+      <c r="F41" s="3" t="n"/>
+      <c r="G41" s="3" t="n"/>
+      <c r="H41" s="3" t="n"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="n"/>
+      <c r="B42" s="3" t="n"/>
+      <c r="C42" s="3" t="n"/>
+      <c r="D42" s="3" t="n"/>
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
+      <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="3" t="n"/>
+      <c r="C43" s="3" t="n"/>
+      <c r="D43" s="3" t="n"/>
+      <c r="E43" s="3" t="n"/>
+      <c r="F43" s="3" t="n"/>
+      <c r="G43" s="3" t="n"/>
+      <c r="H43" s="3" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="3" t="n"/>
+      <c r="C44" s="3" t="n"/>
+      <c r="D44" s="3" t="n"/>
+      <c r="E44" s="3" t="n"/>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
+      <c r="H44" s="3" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
+      <c r="D45" s="3" t="n"/>
+      <c r="E45" s="3" t="n"/>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
+      <c r="H45" s="3" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="3" t="n"/>
+      <c r="D46" s="3" t="n"/>
+      <c r="E46" s="3" t="n"/>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
+      <c r="H46" s="3" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
+      <c r="D47" s="3" t="n"/>
+      <c r="E47" s="3" t="n"/>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
+      <c r="H47" s="3" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="n"/>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
+      <c r="D48" s="3" t="n"/>
+      <c r="E48" s="3" t="n"/>
+      <c r="F48" s="3" t="n"/>
+      <c r="G48" s="3" t="n"/>
+      <c r="H48" s="3" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="3" t="n"/>
+      <c r="C49" s="3" t="n"/>
+      <c r="D49" s="3" t="n"/>
+      <c r="E49" s="3" t="n"/>
+      <c r="F49" s="3" t="n"/>
+      <c r="G49" s="3" t="n"/>
+      <c r="H49" s="3" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="n"/>
+      <c r="B50" s="3" t="n"/>
+      <c r="C50" s="3" t="n"/>
+      <c r="D50" s="3" t="n"/>
+      <c r="E50" s="3" t="n"/>
+      <c r="F50" s="3" t="n"/>
+      <c r="G50" s="3" t="n"/>
+      <c r="H50" s="3" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="3" t="n"/>
+      <c r="C51" s="3" t="n"/>
+      <c r="D51" s="3" t="n"/>
+      <c r="E51" s="3" t="n"/>
+      <c r="F51" s="3" t="n"/>
+      <c r="G51" s="3" t="n"/>
+      <c r="H51" s="3" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="3" t="n"/>
+      <c r="C52" s="3" t="n"/>
+      <c r="D52" s="3" t="n"/>
+      <c r="E52" s="3" t="n"/>
+      <c r="F52" s="3" t="n"/>
+      <c r="G52" s="3" t="n"/>
+      <c r="H52" s="3" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="n"/>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53" s="3" t="n"/>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="3" t="n"/>
+      <c r="F53" s="3" t="n"/>
+      <c r="G53" s="3" t="n"/>
+      <c r="H53" s="3" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="n"/>
+      <c r="B54" s="3" t="n"/>
+      <c r="C54" s="3" t="n"/>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="3" t="n"/>
+      <c r="F54" s="3" t="n"/>
+      <c r="G54" s="3" t="n"/>
+      <c r="H54" s="3" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="n"/>
+      <c r="B55" s="3" t="n"/>
+      <c r="C55" s="3" t="n"/>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="n"/>
+      <c r="B56" s="3" t="n"/>
+      <c r="C56" s="3" t="n"/>
+      <c r="D56" s="3" t="n"/>
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="n"/>
+      <c r="H56" s="3" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="n"/>
+      <c r="B57" s="3" t="n"/>
+      <c r="C57" s="3" t="n"/>
+      <c r="D57" s="3" t="n"/>
+      <c r="E57" s="3" t="n"/>
+      <c r="F57" s="3" t="n"/>
+      <c r="G57" s="3" t="n"/>
+      <c r="H57" s="3" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="n"/>
+      <c r="B58" s="3" t="n"/>
+      <c r="C58" s="3" t="n"/>
+      <c r="D58" s="3" t="n"/>
+      <c r="E58" s="3" t="n"/>
+      <c r="F58" s="3" t="n"/>
+      <c r="G58" s="3" t="n"/>
+      <c r="H58" s="3" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="n"/>
+      <c r="B59" s="3" t="n"/>
+      <c r="C59" s="3" t="n"/>
+      <c r="D59" s="3" t="n"/>
+      <c r="E59" s="3" t="n"/>
+      <c r="F59" s="3" t="n"/>
+      <c r="G59" s="3" t="n"/>
+      <c r="H59" s="3" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="n"/>
+      <c r="B60" s="3" t="n"/>
+      <c r="C60" s="3" t="n"/>
+      <c r="D60" s="3" t="n"/>
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
+      <c r="G60" s="3" t="n"/>
+      <c r="H60" s="3" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="n"/>
+      <c r="B61" s="3" t="n"/>
+      <c r="C61" s="3" t="n"/>
+      <c r="D61" s="3" t="n"/>
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="n"/>
+      <c r="H61" s="3" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="n"/>
+      <c r="B62" s="3" t="n"/>
+      <c r="C62" s="3" t="n"/>
+      <c r="D62" s="3" t="n"/>
+      <c r="E62" s="3" t="n"/>
+      <c r="F62" s="3" t="n"/>
+      <c r="G62" s="3" t="n"/>
+      <c r="H62" s="3" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="n"/>
+      <c r="B63" s="3" t="n"/>
+      <c r="C63" s="3" t="n"/>
+      <c r="D63" s="3" t="n"/>
+      <c r="E63" s="3" t="n"/>
+      <c r="F63" s="3" t="n"/>
+      <c r="G63" s="3" t="n"/>
+      <c r="H63" s="3" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="n"/>
+      <c r="B64" s="3" t="n"/>
+      <c r="C64" s="3" t="n"/>
+      <c r="D64" s="3" t="n"/>
+      <c r="E64" s="3" t="n"/>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="n"/>
+      <c r="H64" s="3" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="n"/>
+      <c r="B65" s="3" t="n"/>
+      <c r="C65" s="3" t="n"/>
+      <c r="D65" s="3" t="n"/>
+      <c r="E65" s="3" t="n"/>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="n"/>
+      <c r="B66" s="3" t="n"/>
+      <c r="C66" s="3" t="n"/>
+      <c r="D66" s="3" t="n"/>
+      <c r="E66" s="3" t="n"/>
+      <c r="F66" s="3" t="n"/>
+      <c r="G66" s="3" t="n"/>
+      <c r="H66" s="3" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="n"/>
+      <c r="B67" s="3" t="n"/>
+      <c r="C67" s="3" t="n"/>
+      <c r="D67" s="3" t="n"/>
+      <c r="E67" s="3" t="n"/>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="n"/>
+      <c r="H67" s="3" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="n"/>
+      <c r="B68" s="3" t="n"/>
+      <c r="C68" s="3" t="n"/>
+      <c r="D68" s="3" t="n"/>
+      <c r="E68" s="3" t="n"/>
+      <c r="F68" s="3" t="n"/>
+      <c r="G68" s="3" t="n"/>
+      <c r="H68" s="3" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="n"/>
+      <c r="B69" s="3" t="n"/>
+      <c r="C69" s="3" t="n"/>
+      <c r="D69" s="3" t="n"/>
+      <c r="E69" s="3" t="n"/>
+      <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="n"/>
+      <c r="B70" s="3" t="n"/>
+      <c r="C70" s="3" t="n"/>
+      <c r="D70" s="3" t="n"/>
+      <c r="E70" s="3" t="n"/>
+      <c r="F70" s="3" t="n"/>
+      <c r="G70" s="3" t="n"/>
+      <c r="H70" s="3" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="3" t="n"/>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="n"/>
+      <c r="B72" s="3" t="n"/>
+      <c r="C72" s="3" t="n"/>
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="3" t="n"/>
+      <c r="F72" s="3" t="n"/>
+      <c r="G72" s="3" t="n"/>
+      <c r="H72" s="3" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="3" t="n"/>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="n"/>
+      <c r="H73" s="3" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="n"/>
+      <c r="B74" s="3" t="n"/>
+      <c r="C74" s="3" t="n"/>
+      <c r="D74" s="3" t="n"/>
+      <c r="E74" s="3" t="n"/>
+      <c r="F74" s="3" t="n"/>
+      <c r="G74" s="3" t="n"/>
+      <c r="H74" s="3" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="n"/>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="n"/>
+      <c r="B76" s="3" t="n"/>
+      <c r="C76" s="3" t="n"/>
+      <c r="D76" s="3" t="n"/>
+      <c r="E76" s="3" t="n"/>
+      <c r="F76" s="3" t="n"/>
+      <c r="G76" s="3" t="n"/>
+      <c r="H76" s="3" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="3" t="n"/>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+      <c r="E77" s="3" t="n"/>
+      <c r="F77" s="3" t="n"/>
+      <c r="G77" s="3" t="n"/>
+      <c r="H77" s="3" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="n"/>
+      <c r="B78" s="3" t="n"/>
+      <c r="C78" s="3" t="n"/>
+      <c r="D78" s="3" t="n"/>
+      <c r="E78" s="3" t="n"/>
+      <c r="F78" s="3" t="n"/>
+      <c r="G78" s="3" t="n"/>
+      <c r="H78" s="3" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="3" t="n"/>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="3" t="n"/>
+      <c r="F79" s="3" t="n"/>
+      <c r="G79" s="3" t="n"/>
+      <c r="H79" s="3" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="3" t="n"/>
+      <c r="B80" s="3" t="n"/>
+      <c r="C80" s="3" t="n"/>
+      <c r="D80" s="3" t="n"/>
+      <c r="E80" s="3" t="n"/>
+      <c r="F80" s="3" t="n"/>
+      <c r="G80" s="3" t="n"/>
+      <c r="H80" s="3" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="3" t="n"/>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="n"/>
+      <c r="B82" s="3" t="n"/>
+      <c r="C82" s="3" t="n"/>
+      <c r="D82" s="3" t="n"/>
+      <c r="E82" s="3" t="n"/>
+      <c r="F82" s="3" t="n"/>
+      <c r="G82" s="3" t="n"/>
+      <c r="H82" s="3" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="3" t="n"/>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="n"/>
+      <c r="B84" s="3" t="n"/>
+      <c r="C84" s="3" t="n"/>
+      <c r="D84" s="3" t="n"/>
+      <c r="E84" s="3" t="n"/>
+      <c r="F84" s="3" t="n"/>
+      <c r="G84" s="3" t="n"/>
+      <c r="H84" s="3" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="3" t="n"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="3" t="n"/>
+      <c r="F85" s="3" t="n"/>
+      <c r="G85" s="3" t="n"/>
+      <c r="H85" s="3" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="3" t="n"/>
+      <c r="B86" s="3" t="n"/>
+      <c r="C86" s="3" t="n"/>
+      <c r="D86" s="3" t="n"/>
+      <c r="E86" s="3" t="n"/>
+      <c r="F86" s="3" t="n"/>
+      <c r="G86" s="3" t="n"/>
+      <c r="H86" s="3" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="3" t="n"/>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
+      <c r="H87" s="3" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="n"/>
+      <c r="B88" s="3" t="n"/>
+      <c r="C88" s="3" t="n"/>
+      <c r="D88" s="3" t="n"/>
+      <c r="E88" s="3" t="n"/>
+      <c r="F88" s="3" t="n"/>
+      <c r="G88" s="3" t="n"/>
+      <c r="H88" s="3" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="3" t="n"/>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+      <c r="E89" s="3" t="n"/>
+      <c r="F89" s="3" t="n"/>
+      <c r="G89" s="3" t="n"/>
+      <c r="H89" s="3" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="3" t="n"/>
+      <c r="B90" s="3" t="n"/>
+      <c r="C90" s="3" t="n"/>
+      <c r="D90" s="3" t="n"/>
+      <c r="E90" s="3" t="n"/>
+      <c r="F90" s="3" t="n"/>
+      <c r="G90" s="3" t="n"/>
+      <c r="H90" s="3" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="3" t="n"/>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+      <c r="E91" s="3" t="n"/>
+      <c r="F91" s="3" t="n"/>
+      <c r="G91" s="3" t="n"/>
+      <c r="H91" s="3" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="3" t="n"/>
+      <c r="B92" s="3" t="n"/>
+      <c r="C92" s="3" t="n"/>
+      <c r="D92" s="3" t="n"/>
+      <c r="E92" s="3" t="n"/>
+      <c r="F92" s="3" t="n"/>
+      <c r="G92" s="3" t="n"/>
+      <c r="H92" s="3" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="n"/>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="3" t="n"/>
+      <c r="F93" s="3" t="n"/>
+      <c r="G93" s="3" t="n"/>
+      <c r="H93" s="3" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="3" t="n"/>
+      <c r="C94" s="3" t="n"/>
+      <c r="D94" s="3" t="n"/>
+      <c r="E94" s="3" t="n"/>
+      <c r="F94" s="3" t="n"/>
+      <c r="G94" s="3" t="n"/>
+      <c r="H94" s="3" t="n"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="n"/>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+      <c r="E95" s="3" t="n"/>
+      <c r="F95" s="3" t="n"/>
+      <c r="G95" s="3" t="n"/>
+      <c r="H95" s="3" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="3" t="n"/>
+      <c r="B96" s="3" t="n"/>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="3" t="n"/>
+      <c r="F96" s="3" t="n"/>
+      <c r="G96" s="3" t="n"/>
+      <c r="H96" s="3" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="3" t="n"/>
+      <c r="F97" s="3" t="n"/>
+      <c r="G97" s="3" t="n"/>
+      <c r="H97" s="3" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="3" t="n"/>
+      <c r="C98" s="3" t="n"/>
+      <c r="D98" s="3" t="n"/>
+      <c r="E98" s="3" t="n"/>
+      <c r="F98" s="3" t="n"/>
+      <c r="G98" s="3" t="n"/>
+      <c r="H98" s="3" t="n"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="n"/>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="3" t="n"/>
+      <c r="F99" s="3" t="n"/>
+      <c r="G99" s="3" t="n"/>
+      <c r="H99" s="3" t="n"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="3" t="n"/>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="3" t="n"/>
+      <c r="E100" s="3" t="n"/>
+      <c r="F100" s="3" t="n"/>
+      <c r="G100" s="3" t="n"/>
+      <c r="H100" s="3" t="n"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="n"/>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="3" t="n"/>
+      <c r="F101" s="3" t="n"/>
+      <c r="G101" s="3" t="n"/>
+      <c r="H101" s="3" t="n"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="3" t="n"/>
+      <c r="B102" s="3" t="n"/>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="3" t="n"/>
+      <c r="E102" s="3" t="n"/>
+      <c r="F102" s="3" t="n"/>
+      <c r="G102" s="3" t="n"/>
+      <c r="H102" s="3" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="3" t="n"/>
+      <c r="F103" s="3" t="n"/>
+      <c r="G103" s="3" t="n"/>
+      <c r="H103" s="3" t="n"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="3" t="n"/>
+      <c r="B104" s="3" t="n"/>
+      <c r="C104" s="3" t="n"/>
+      <c r="D104" s="3" t="n"/>
+      <c r="E104" s="3" t="n"/>
+      <c r="F104" s="3" t="n"/>
+      <c r="G104" s="3" t="n"/>
+      <c r="H104" s="3" t="n"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="3" t="n"/>
+      <c r="F105" s="3" t="n"/>
+      <c r="G105" s="3" t="n"/>
+      <c r="H105" s="3" t="n"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="3" t="n"/>
+      <c r="B106" s="3" t="n"/>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="3" t="n"/>
+      <c r="E106" s="3" t="n"/>
+      <c r="F106" s="3" t="n"/>
+      <c r="G106" s="3" t="n"/>
+      <c r="H106" s="3" t="n"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="3" t="n"/>
+      <c r="B107" s="3" t="n"/>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+      <c r="E107" s="3" t="n"/>
+      <c r="F107" s="3" t="n"/>
+      <c r="G107" s="3" t="n"/>
+      <c r="H107" s="3" t="n"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="3" t="n"/>
+      <c r="B108" s="3" t="n"/>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="3" t="n"/>
+      <c r="F108" s="3" t="n"/>
+      <c r="G108" s="3" t="n"/>
+      <c r="H108" s="3" t="n"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="n"/>
+      <c r="B109" s="3" t="n"/>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="3" t="n"/>
+      <c r="F109" s="3" t="n"/>
+      <c r="G109" s="3" t="n"/>
+      <c r="H109" s="3" t="n"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="n"/>
+      <c r="B110" s="3" t="n"/>
+      <c r="C110" s="3" t="n"/>
+      <c r="D110" s="3" t="n"/>
+      <c r="E110" s="3" t="n"/>
+      <c r="F110" s="3" t="n"/>
+      <c r="G110" s="3" t="n"/>
+      <c r="H110" s="3" t="n"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="3" t="n"/>
+      <c r="B111" s="3" t="n"/>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="3" t="n"/>
+      <c r="F111" s="3" t="n"/>
+      <c r="G111" s="3" t="n"/>
+      <c r="H111" s="3" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="3" t="n"/>
+      <c r="B112" s="3" t="n"/>
+      <c r="C112" s="3" t="n"/>
+      <c r="D112" s="3" t="n"/>
+      <c r="E112" s="3" t="n"/>
+      <c r="F112" s="3" t="n"/>
+      <c r="G112" s="3" t="n"/>
+      <c r="H112" s="3" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="n"/>
+      <c r="B113" s="3" t="n"/>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="3" t="n"/>
+      <c r="E113" s="3" t="n"/>
+      <c r="F113" s="3" t="n"/>
+      <c r="G113" s="3" t="n"/>
+      <c r="H113" s="3" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="3" t="n"/>
+      <c r="B114" s="3" t="n"/>
+      <c r="C114" s="3" t="n"/>
+      <c r="D114" s="3" t="n"/>
+      <c r="E114" s="3" t="n"/>
+      <c r="F114" s="3" t="n"/>
+      <c r="G114" s="3" t="n"/>
+      <c r="H114" s="3" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="3" t="n"/>
+      <c r="B115" s="3" t="n"/>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+      <c r="E115" s="3" t="n"/>
+      <c r="F115" s="3" t="n"/>
+      <c r="G115" s="3" t="n"/>
+      <c r="H115" s="3" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="3" t="n"/>
+      <c r="B116" s="3" t="n"/>
+      <c r="C116" s="3" t="n"/>
+      <c r="D116" s="3" t="n"/>
+      <c r="E116" s="3" t="n"/>
+      <c r="F116" s="3" t="n"/>
+      <c r="G116" s="3" t="n"/>
+      <c r="H116" s="3" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="3" t="n"/>
+      <c r="B117" s="3" t="n"/>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+      <c r="E117" s="3" t="n"/>
+      <c r="F117" s="3" t="n"/>
+      <c r="G117" s="3" t="n"/>
+      <c r="H117" s="3" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="3" t="n"/>
+      <c r="B118" s="3" t="n"/>
+      <c r="C118" s="3" t="n"/>
+      <c r="D118" s="3" t="n"/>
+      <c r="E118" s="3" t="n"/>
+      <c r="F118" s="3" t="n"/>
+      <c r="G118" s="3" t="n"/>
+      <c r="H118" s="3" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="3" t="n"/>
+      <c r="B119" s="3" t="n"/>
+      <c r="C119" s="3" t="n"/>
+      <c r="D119" s="3" t="n"/>
+      <c r="E119" s="3" t="n"/>
+      <c r="F119" s="3" t="n"/>
+      <c r="G119" s="3" t="n"/>
+      <c r="H119" s="3" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="3" t="n"/>
+      <c r="B120" s="3" t="n"/>
+      <c r="C120" s="3" t="n"/>
+      <c r="D120" s="3" t="n"/>
+      <c r="E120" s="3" t="n"/>
+      <c r="F120" s="3" t="n"/>
+      <c r="G120" s="3" t="n"/>
+      <c r="H120" s="3" t="n"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="3" t="n"/>
+      <c r="B121" s="3" t="n"/>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="3" t="n"/>
+      <c r="E121" s="3" t="n"/>
+      <c r="F121" s="3" t="n"/>
+      <c r="G121" s="3" t="n"/>
+      <c r="H121" s="3" t="n"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="n"/>
+      <c r="B122" s="3" t="n"/>
+      <c r="C122" s="3" t="n"/>
+      <c r="D122" s="3" t="n"/>
+      <c r="E122" s="3" t="n"/>
+      <c r="F122" s="3" t="n"/>
+      <c r="G122" s="3" t="n"/>
+      <c r="H122" s="3" t="n"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="3" t="n"/>
+      <c r="B123" s="3" t="n"/>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="3" t="n"/>
+      <c r="E123" s="3" t="n"/>
+      <c r="F123" s="3" t="n"/>
+      <c r="G123" s="3" t="n"/>
+      <c r="H123" s="3" t="n"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="3" t="n"/>
+      <c r="B124" s="3" t="n"/>
+      <c r="C124" s="3" t="n"/>
+      <c r="D124" s="3" t="n"/>
+      <c r="E124" s="3" t="n"/>
+      <c r="F124" s="3" t="n"/>
+      <c r="G124" s="3" t="n"/>
+      <c r="H124" s="3" t="n"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="3" t="n"/>
+      <c r="B125" s="3" t="n"/>
+      <c r="C125" s="3" t="n"/>
+      <c r="D125" s="3" t="n"/>
+      <c r="E125" s="3" t="n"/>
+      <c r="F125" s="3" t="n"/>
+      <c r="G125" s="3" t="n"/>
+      <c r="H125" s="3" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="3" t="n"/>
+      <c r="B126" s="3" t="n"/>
+      <c r="C126" s="3" t="n"/>
+      <c r="D126" s="3" t="n"/>
+      <c r="E126" s="3" t="n"/>
+      <c r="F126" s="3" t="n"/>
+      <c r="G126" s="3" t="n"/>
+      <c r="H126" s="3" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="3" t="n"/>
+      <c r="B127" s="3" t="n"/>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+      <c r="E127" s="3" t="n"/>
+      <c r="F127" s="3" t="n"/>
+      <c r="G127" s="3" t="n"/>
+      <c r="H127" s="3" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="3" t="n"/>
+      <c r="B128" s="3" t="n"/>
+      <c r="C128" s="3" t="n"/>
+      <c r="D128" s="3" t="n"/>
+      <c r="E128" s="3" t="n"/>
+      <c r="F128" s="3" t="n"/>
+      <c r="G128" s="3" t="n"/>
+      <c r="H128" s="3" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="3" t="n"/>
+      <c r="B129" s="3" t="n"/>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+      <c r="E129" s="3" t="n"/>
+      <c r="F129" s="3" t="n"/>
+      <c r="G129" s="3" t="n"/>
+      <c r="H129" s="3" t="n"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="3" t="n"/>
+      <c r="B130" s="3" t="n"/>
+      <c r="C130" s="3" t="n"/>
+      <c r="D130" s="3" t="n"/>
+      <c r="E130" s="3" t="n"/>
+      <c r="F130" s="3" t="n"/>
+      <c r="G130" s="3" t="n"/>
+      <c r="H130" s="3" t="n"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="3" t="n"/>
+      <c r="B131" s="3" t="n"/>
+      <c r="C131" s="3" t="n"/>
+      <c r="D131" s="3" t="n"/>
+      <c r="E131" s="3" t="n"/>
+      <c r="F131" s="3" t="n"/>
+      <c r="G131" s="3" t="n"/>
+      <c r="H131" s="3" t="n"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="3" t="n"/>
+      <c r="B132" s="3" t="n"/>
+      <c r="C132" s="3" t="n"/>
+      <c r="D132" s="3" t="n"/>
+      <c r="E132" s="3" t="n"/>
+      <c r="F132" s="3" t="n"/>
+      <c r="G132" s="3" t="n"/>
+      <c r="H132" s="3" t="n"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="3" t="n"/>
+      <c r="B133" s="3" t="n"/>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="3" t="n"/>
+      <c r="E133" s="3" t="n"/>
+      <c r="F133" s="3" t="n"/>
+      <c r="G133" s="3" t="n"/>
+      <c r="H133" s="3" t="n"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="3" t="n"/>
+      <c r="B134" s="3" t="n"/>
+      <c r="C134" s="3" t="n"/>
+      <c r="D134" s="3" t="n"/>
+      <c r="E134" s="3" t="n"/>
+      <c r="F134" s="3" t="n"/>
+      <c r="G134" s="3" t="n"/>
+      <c r="H134" s="3" t="n"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="3" t="n"/>
+      <c r="B135" s="3" t="n"/>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+      <c r="E135" s="3" t="n"/>
+      <c r="F135" s="3" t="n"/>
+      <c r="G135" s="3" t="n"/>
+      <c r="H135" s="3" t="n"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="3" t="n"/>
+      <c r="B136" s="3" t="n"/>
+      <c r="C136" s="3" t="n"/>
+      <c r="D136" s="3" t="n"/>
+      <c r="E136" s="3" t="n"/>
+      <c r="F136" s="3" t="n"/>
+      <c r="G136" s="3" t="n"/>
+      <c r="H136" s="3" t="n"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="3" t="n"/>
+      <c r="B137" s="3" t="n"/>
+      <c r="C137" s="3" t="n"/>
+      <c r="D137" s="3" t="n"/>
+      <c r="E137" s="3" t="n"/>
+      <c r="F137" s="3" t="n"/>
+      <c r="G137" s="3" t="n"/>
+      <c r="H137" s="3" t="n"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="3" t="n"/>
+      <c r="B138" s="3" t="n"/>
+      <c r="C138" s="3" t="n"/>
+      <c r="D138" s="3" t="n"/>
+      <c r="E138" s="3" t="n"/>
+      <c r="F138" s="3" t="n"/>
+      <c r="G138" s="3" t="n"/>
+      <c r="H138" s="3" t="n"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="3" t="n"/>
+      <c r="B139" s="3" t="n"/>
+      <c r="C139" s="3" t="n"/>
+      <c r="D139" s="3" t="n"/>
+      <c r="E139" s="3" t="n"/>
+      <c r="F139" s="3" t="n"/>
+      <c r="G139" s="3" t="n"/>
+      <c r="H139" s="3" t="n"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="3" t="n"/>
+      <c r="B140" s="3" t="n"/>
+      <c r="C140" s="3" t="n"/>
+      <c r="D140" s="3" t="n"/>
+      <c r="E140" s="3" t="n"/>
+      <c r="F140" s="3" t="n"/>
+      <c r="G140" s="3" t="n"/>
+      <c r="H140" s="3" t="n"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="3" t="n"/>
+      <c r="B141" s="3" t="n"/>
+      <c r="C141" s="3" t="n"/>
+      <c r="D141" s="3" t="n"/>
+      <c r="E141" s="3" t="n"/>
+      <c r="F141" s="3" t="n"/>
+      <c r="G141" s="3" t="n"/>
+      <c r="H141" s="3" t="n"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="3" t="n"/>
+      <c r="B142" s="3" t="n"/>
+      <c r="C142" s="3" t="n"/>
+      <c r="D142" s="3" t="n"/>
+      <c r="E142" s="3" t="n"/>
+      <c r="F142" s="3" t="n"/>
+      <c r="G142" s="3" t="n"/>
+      <c r="H142" s="3" t="n"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="3" t="n"/>
+      <c r="B143" s="3" t="n"/>
+      <c r="C143" s="3" t="n"/>
+      <c r="D143" s="3" t="n"/>
+      <c r="E143" s="3" t="n"/>
+      <c r="F143" s="3" t="n"/>
+      <c r="G143" s="3" t="n"/>
+      <c r="H143" s="3" t="n"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="n"/>
+      <c r="B144" s="3" t="n"/>
+      <c r="C144" s="3" t="n"/>
+      <c r="D144" s="3" t="n"/>
+      <c r="E144" s="3" t="n"/>
+      <c r="F144" s="3" t="n"/>
+      <c r="G144" s="3" t="n"/>
+      <c r="H144" s="3" t="n"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="3" t="n"/>
+      <c r="B145" s="3" t="n"/>
+      <c r="C145" s="3" t="n"/>
+      <c r="D145" s="3" t="n"/>
+      <c r="E145" s="3" t="n"/>
+      <c r="F145" s="3" t="n"/>
+      <c r="G145" s="3" t="n"/>
+      <c r="H145" s="3" t="n"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="3" t="n"/>
+      <c r="B146" s="3" t="n"/>
+      <c r="C146" s="3" t="n"/>
+      <c r="D146" s="3" t="n"/>
+      <c r="E146" s="3" t="n"/>
+      <c r="F146" s="3" t="n"/>
+      <c r="G146" s="3" t="n"/>
+      <c r="H146" s="3" t="n"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="3" t="n"/>
+      <c r="B147" s="3" t="n"/>
+      <c r="C147" s="3" t="n"/>
+      <c r="D147" s="3" t="n"/>
+      <c r="E147" s="3" t="n"/>
+      <c r="F147" s="3" t="n"/>
+      <c r="G147" s="3" t="n"/>
+      <c r="H147" s="3" t="n"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="n"/>
+      <c r="B148" s="3" t="n"/>
+      <c r="C148" s="3" t="n"/>
+      <c r="D148" s="3" t="n"/>
+      <c r="E148" s="3" t="n"/>
+      <c r="F148" s="3" t="n"/>
+      <c r="G148" s="3" t="n"/>
+      <c r="H148" s="3" t="n"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="3" t="n"/>
+      <c r="B149" s="3" t="n"/>
+      <c r="C149" s="3" t="n"/>
+      <c r="D149" s="3" t="n"/>
+      <c r="E149" s="3" t="n"/>
+      <c r="F149" s="3" t="n"/>
+      <c r="G149" s="3" t="n"/>
+      <c r="H149" s="3" t="n"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="n"/>
+      <c r="B150" s="3" t="n"/>
+      <c r="C150" s="3" t="n"/>
+      <c r="D150" s="3" t="n"/>
+      <c r="E150" s="3" t="n"/>
+      <c r="F150" s="3" t="n"/>
+      <c r="G150" s="3" t="n"/>
+      <c r="H150" s="3" t="n"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="3" t="n"/>
+      <c r="B151" s="3" t="n"/>
+      <c r="C151" s="3" t="n"/>
+      <c r="D151" s="3" t="n"/>
+      <c r="E151" s="3" t="n"/>
+      <c r="F151" s="3" t="n"/>
+      <c r="G151" s="3" t="n"/>
+      <c r="H151" s="3" t="n"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="n"/>
+      <c r="B152" s="3" t="n"/>
+      <c r="C152" s="3" t="n"/>
+      <c r="D152" s="3" t="n"/>
+      <c r="E152" s="3" t="n"/>
+      <c r="F152" s="3" t="n"/>
+      <c r="G152" s="3" t="n"/>
+      <c r="H152" s="3" t="n"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="n"/>
+      <c r="B153" s="3" t="n"/>
+      <c r="C153" s="3" t="n"/>
+      <c r="D153" s="3" t="n"/>
+      <c r="E153" s="3" t="n"/>
+      <c r="F153" s="3" t="n"/>
+      <c r="G153" s="3" t="n"/>
+      <c r="H153" s="3" t="n"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="n"/>
+      <c r="B154" s="3" t="n"/>
+      <c r="C154" s="3" t="n"/>
+      <c r="D154" s="3" t="n"/>
+      <c r="E154" s="3" t="n"/>
+      <c r="F154" s="3" t="n"/>
+      <c r="G154" s="3" t="n"/>
+      <c r="H154" s="3" t="n"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="3" t="n"/>
+      <c r="B155" s="3" t="n"/>
+      <c r="C155" s="3" t="n"/>
+      <c r="D155" s="3" t="n"/>
+      <c r="E155" s="3" t="n"/>
+      <c r="F155" s="3" t="n"/>
+      <c r="G155" s="3" t="n"/>
+      <c r="H155" s="3" t="n"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="3" t="n"/>
+      <c r="B156" s="3" t="n"/>
+      <c r="C156" s="3" t="n"/>
+      <c r="D156" s="3" t="n"/>
+      <c r="E156" s="3" t="n"/>
+      <c r="F156" s="3" t="n"/>
+      <c r="G156" s="3" t="n"/>
+      <c r="H156" s="3" t="n"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="n"/>
+      <c r="B157" s="3" t="n"/>
+      <c r="C157" s="3" t="n"/>
+      <c r="D157" s="3" t="n"/>
+      <c r="E157" s="3" t="n"/>
+      <c r="F157" s="3" t="n"/>
+      <c r="G157" s="3" t="n"/>
+      <c r="H157" s="3" t="n"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="3" t="n"/>
+      <c r="B158" s="3" t="n"/>
+      <c r="C158" s="3" t="n"/>
+      <c r="D158" s="3" t="n"/>
+      <c r="E158" s="3" t="n"/>
+      <c r="F158" s="3" t="n"/>
+      <c r="G158" s="3" t="n"/>
+      <c r="H158" s="3" t="n"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="3" t="n"/>
+      <c r="B159" s="3" t="n"/>
+      <c r="C159" s="3" t="n"/>
+      <c r="D159" s="3" t="n"/>
+      <c r="E159" s="3" t="n"/>
+      <c r="F159" s="3" t="n"/>
+      <c r="G159" s="3" t="n"/>
+      <c r="H159" s="3" t="n"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="3" t="n"/>
+      <c r="B160" s="3" t="n"/>
+      <c r="C160" s="3" t="n"/>
+      <c r="D160" s="3" t="n"/>
+      <c r="E160" s="3" t="n"/>
+      <c r="F160" s="3" t="n"/>
+      <c r="G160" s="3" t="n"/>
+      <c r="H160" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LibroDiario.xlsx
+++ b/LibroDiario.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -523,7 +523,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -538,7 +538,7 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -556,35 +556,37 @@
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="G3" s="3" t="n"/>
       <c r="H3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
+      <c r="A4" s="3" t="n">
+        <v>2</v>
+      </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>1110101</v>
+        <v>11402</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G4" s="3" t="n"/>
@@ -594,53 +596,55 @@
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>219</v>
+        <v>1110101</v>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>Otros pasivos a corto plazo</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
       <c r="H5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
+      <c r="A6" s="3" t="n">
+        <v>3</v>
+      </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>1110101</v>
+        <v>11402</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -650,53 +654,55 @@
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>44101</v>
+        <v>1110101</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Ventas de bienes</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
+      <c r="A8" s="3" t="n">
+        <v>4</v>
+      </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>511</v>
+        <v>11402</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Gastos en personal</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G8" s="3" t="n"/>
@@ -706,7 +712,7 @@
       <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
@@ -719,12 +725,12 @@
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="G9" s="3" t="n"/>
@@ -732,24 +738,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>1110101</v>
+        <v>11402</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>7326.0</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -764,15 +770,15 @@
       <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>21</v>
+        <v>1110101</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Pasivo Corriente</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -782,7 +788,7 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>7326.0</t>
         </is>
       </c>
       <c r="G11" s="3" t="n"/>
@@ -790,24 +796,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>51</v>
+        <v>11402</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Gastos de funcionamiento</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>1650.0</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -822,15 +828,15 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>1110101</v>
+        <v>2110101</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Deudas por adquisición de inventarios c/p</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -840,7 +846,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>20000</t>
+          <t>1650.0</t>
         </is>
       </c>
       <c r="G13" s="3" t="n"/>
@@ -848,29 +854,29 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>1110101</v>
+        <v>2110101</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Deudas por adquisición de inventarios c/p</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1650.0</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G14" s="3" t="n"/>
@@ -880,15 +886,15 @@
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
-        <v>21</v>
+        <v>11402</v>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>Pasivo Corriente</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -898,7 +904,7 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1650.0</t>
         </is>
       </c>
       <c r="G15" s="3" t="n"/>
@@ -906,11 +912,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
@@ -923,12 +929,12 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7326.0</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G16" s="3" t="n"/>
@@ -938,15 +944,15 @@
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Oct-16-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>21</v>
+        <v>11402</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Pasivo Corriente</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -956,7 +962,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7326.0</t>
         </is>
       </c>
       <c r="G17" s="3" t="n"/>
@@ -964,11 +970,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Oct-17-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
@@ -981,12 +987,12 @@
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G18" s="3" t="n"/>
@@ -996,15 +1002,15 @@
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Oct-17-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>44101</v>
+        <v>11402</v>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>Ventas de bienes</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1014,7 +1020,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="G19" s="3" t="n"/>
@@ -1022,11 +1028,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Oct-17-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
@@ -1039,12 +1045,12 @@
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G20" s="3" t="n"/>
@@ -1054,15 +1060,15 @@
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Oct-17-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>219</v>
+        <v>11402</v>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Otros pasivos a corto plazo</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1072,7 +1078,7 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="G21" s="3" t="n"/>
@@ -1080,29 +1086,29 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Dec-08-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>11</v>
+        <v>1110101</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Activo Corriente</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" s="3" t="n"/>
@@ -1112,15 +1118,15 @@
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Dec-08-2022</t>
+          <t>Dec-25-2022</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
-        <v>11101</v>
+        <v>11402</v>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>Efectivo</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1130,125 +1136,49 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>40000.0</t>
         </is>
       </c>
       <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Dec-14-2022</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="n">
-        <v>1110101</v>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>Caja</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F24" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
+      <c r="D24" s="3" t="n"/>
+      <c r="E24" s="3" t="n"/>
+      <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>Dec-14-2022</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="n">
-        <v>521</v>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>Intereses sobre endeudamiento público</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
+      <c r="D25" s="3" t="n"/>
+      <c r="E25" s="3" t="n"/>
+      <c r="F25" s="3" t="n"/>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>10</v>
-      </c>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Dec-14-2022</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="n">
-        <v>1110101</v>
-      </c>
-      <c r="D26" s="3" t="inlineStr">
-        <is>
-          <t>Caja</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F26" s="3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
+      <c r="D26" s="3" t="n"/>
+      <c r="E26" s="3" t="n"/>
+      <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>Dec-14-2022</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="n">
-        <v>541010102</v>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>Becas</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
+      <c r="D27" s="3" t="n"/>
+      <c r="E27" s="3" t="n"/>
+      <c r="F27" s="3" t="n"/>
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
     </row>

--- a/LibroDiario.xlsx
+++ b/LibroDiario.xlsx
@@ -1143,122 +1143,350 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
-      <c r="F24" s="3" t="n"/>
+      <c r="A24" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
-      <c r="F26" s="3" t="n"/>
+      <c r="A26" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
-      <c r="F27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="n">
+        <v>2110101</v>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>Deudas por adquisición de inventarios c/p</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
       <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
-      <c r="F28" s="3" t="n"/>
+      <c r="A28" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>2110101</v>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>Deudas por adquisición de inventarios c/p</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
       <c r="G29" s="3" t="n"/>
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
+      <c r="A30" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
       <c r="G31" s="3" t="n"/>
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
+      <c r="A32" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="n">
+        <v>2110101</v>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>Deudas por adquisición de inventarios c/p</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="n"/>
-      <c r="F33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
       <c r="G33" s="3" t="n"/>
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="3" t="n"/>
-      <c r="F34" s="3" t="n"/>
+      <c r="A34" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="n">
+        <v>2110101</v>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>Deudas por adquisición de inventarios c/p</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
-      <c r="F35" s="3" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Dec-25-2022</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>40000.0</t>
+        </is>
+      </c>
       <c r="G35" s="3" t="n"/>
       <c r="H35" s="3" t="n"/>
     </row>

--- a/LibroDiario.xlsx
+++ b/LibroDiario.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C2" s="3" t="n">
@@ -538,7 +538,7 @@
       <c r="A3" s="3" t="n"/>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C3" s="3" t="n">
@@ -568,7 +568,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C4" s="3" t="n">
@@ -581,12 +581,12 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>60000.0</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G4" s="3" t="n"/>
@@ -596,7 +596,7 @@
       <c r="A5" s="3" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C5" s="3" t="n">
@@ -609,12 +609,12 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>60000.0</t>
         </is>
       </c>
       <c r="G5" s="3" t="n"/>
@@ -626,7 +626,7 @@
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C6" s="3" t="n">
@@ -639,12 +639,12 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>80000.0</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G6" s="3" t="n"/>
@@ -654,25 +654,25 @@
       <c r="A7" s="3" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1110101</v>
+        <v>2110101</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Deudas por adquisición de inventarios c/p</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>80000.0</t>
         </is>
       </c>
       <c r="G7" s="3" t="n"/>
@@ -684,25 +684,25 @@
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>11402</v>
+        <v>1110101</v>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>8000.0</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G8" s="3" t="n"/>
@@ -712,50 +712,48 @@
       <c r="A9" s="3" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1110101</v>
+        <v>441</v>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>8000.0</t>
         </is>
       </c>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>5</v>
-      </c>
+      <c r="A10" s="3" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>11402</v>
+        <v>531</v>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Costo de ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>7326.0</t>
+          <t>4000.0</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
@@ -770,15 +768,15 @@
       <c r="A11" s="3" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>1110101</v>
+        <v>11402</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -788,7 +786,7 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>7326.0</t>
+          <t>4000.0</t>
         </is>
       </c>
       <c r="G11" s="3" t="n"/>
@@ -796,24 +794,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>11402</v>
+        <v>1110101</v>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>1650.0</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
@@ -828,15 +826,15 @@
       <c r="A13" s="3" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>2110101</v>
+        <v>441</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>Deudas por adquisición de inventarios c/p</t>
+          <t>Ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -846,37 +844,35 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>1650.0</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>7</v>
-      </c>
+      <c r="A14" s="3" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C14" s="3" t="n">
-        <v>2110101</v>
+        <v>531</v>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>Deudas por adquisición de inventarios c/p</t>
+          <t>Costo de ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>1650.0</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G14" s="3" t="n"/>
@@ -886,7 +882,7 @@
       <c r="A15" s="3" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C15" s="3" t="n">
@@ -904,7 +900,7 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>1650.0</t>
+          <t>10000.0</t>
         </is>
       </c>
       <c r="G15" s="3" t="n"/>
@@ -912,11 +908,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C16" s="3" t="n">
@@ -929,12 +925,12 @@
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>7326.0</t>
+          <t>24000.0</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G16" s="3" t="n"/>
@@ -944,15 +940,15 @@
       <c r="A17" s="3" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>11402</v>
+        <v>441</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -962,37 +958,35 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>7326.0</t>
+          <t>24000.0</t>
         </is>
       </c>
       <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>9</v>
-      </c>
+      <c r="A18" s="3" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>1110101</v>
+        <v>531</v>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Costo de ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>12000.0</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G18" s="3" t="n"/>
@@ -1002,7 +996,7 @@
       <c r="A19" s="3" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C19" s="3" t="n">
@@ -1020,7 +1014,7 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>12000.0</t>
         </is>
       </c>
       <c r="G19" s="3" t="n"/>
@@ -1028,11 +1022,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C20" s="3" t="n">
@@ -1050,7 +1044,7 @@
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G20" s="3" t="n"/>
@@ -1060,15 +1054,15 @@
       <c r="A21" s="3" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C21" s="3" t="n">
-        <v>11402</v>
+        <v>441</v>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1085,30 +1079,28 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>11</v>
-      </c>
+      <c r="A22" s="3" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C22" s="3" t="n">
-        <v>1110101</v>
+        <v>531</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Costo de ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G22" s="3" t="n"/>
@@ -1118,7 +1110,7 @@
       <c r="A23" s="3" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C23" s="3" t="n">
@@ -1136,7 +1128,7 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>20000.0</t>
         </is>
       </c>
       <c r="G23" s="3" t="n"/>
@@ -1144,24 +1136,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C24" s="3" t="n">
-        <v>11402</v>
+        <v>1110101</v>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>80000.0</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
@@ -1176,15 +1168,15 @@
       <c r="A25" s="3" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C25" s="3" t="n">
-        <v>1110101</v>
+        <v>441</v>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1194,27 +1186,25 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>80000.0</t>
         </is>
       </c>
       <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>13</v>
-      </c>
+      <c r="A26" s="3" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C26" s="3" t="n">
-        <v>11402</v>
+        <v>531</v>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Costo de ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1234,15 +1224,15 @@
       <c r="A27" s="3" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C27" s="3" t="n">
-        <v>2110101</v>
+        <v>11402</v>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>Deudas por adquisición de inventarios c/p</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1260,24 +1250,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C28" s="3" t="n">
-        <v>11402</v>
+        <v>1110101</v>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>80000.0</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
@@ -1292,15 +1282,15 @@
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C29" s="3" t="n">
-        <v>2110101</v>
+        <v>441</v>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>Deudas por adquisición de inventarios c/p</t>
+          <t>Ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1310,27 +1300,25 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>80000.0</t>
         </is>
       </c>
       <c r="G29" s="3" t="n"/>
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>15</v>
-      </c>
+      <c r="A30" s="3" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C30" s="3" t="n">
-        <v>1110101</v>
+        <v>531</v>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>Caja</t>
+          <t>Costo de ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1350,7 +1338,7 @@
       <c r="A31" s="3" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C31" s="3" t="n">
@@ -1376,24 +1364,24 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C32" s="3" t="n">
-        <v>2110101</v>
+        <v>11402</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>Deudas por adquisición de inventarios c/p</t>
+          <t>Bienes para la venta</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>145000.0</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
@@ -1408,15 +1396,15 @@
       <c r="A33" s="3" t="n"/>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C33" s="3" t="n">
-        <v>11402</v>
+        <v>1110101</v>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1426,7 +1414,7 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>145000.0</t>
         </is>
       </c>
       <c r="G33" s="3" t="n"/>
@@ -1434,24 +1422,24 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C34" s="3" t="n">
-        <v>2110101</v>
+        <v>1110101</v>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>Deudas por adquisición de inventarios c/p</t>
+          <t>Caja</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>318000.0</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
@@ -1466,15 +1454,15 @@
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Dec-25-2022</t>
+          <t>Jan-08-2023</t>
         </is>
       </c>
       <c r="C35" s="3" t="n">
-        <v>11402</v>
+        <v>441</v>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>Bienes para la venta</t>
+          <t>Ventas de bienes y servicios</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1484,7 +1472,7 @@
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>40000.0</t>
+          <t>318000.0</t>
         </is>
       </c>
       <c r="G35" s="3" t="n"/>
@@ -1492,61 +1480,173 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
-      <c r="F36" s="3" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Jan-08-2023</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>531</v>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>Costo de ventas de bienes y servicios</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>159000.0</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="3" t="n"/>
-      <c r="F37" s="3" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Jan-08-2023</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>159000.0</t>
+        </is>
+      </c>
       <c r="G37" s="3" t="n"/>
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="3" t="n"/>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
+      <c r="A38" s="3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Jan-08-2023</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="n">
+        <v>11402</v>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Bienes para la venta</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>80000.0</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n"/>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="3" t="n"/>
-      <c r="F39" s="3" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Jan-08-2023</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="n">
+        <v>2110101</v>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Deudas por adquisición de inventarios c/p</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>80000.0</t>
+        </is>
+      </c>
       <c r="G39" s="3" t="n"/>
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="3" t="n"/>
-      <c r="C40" s="3" t="n"/>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
-      <c r="F40" s="3" t="n"/>
+      <c r="A40" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Jan-08-2023</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="n">
+        <v>511</v>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Gastos en personal</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
       <c r="G40" s="3" t="n"/>
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n"/>
-      <c r="B41" s="3" t="n"/>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
-      <c r="F41" s="3" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Jan-08-2023</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="n">
+        <v>1110101</v>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Caja</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
       <c r="G41" s="3" t="n"/>
       <c r="H41" s="3" t="n"/>
     </row>
